--- a/resources/Dates.xlsx
+++ b/resources/Dates.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="89">
   <si>
     <t>url</t>
   </si>
@@ -243,7 +243,55 @@
     <t>Getting Organized II</t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>One-Way ANOVA -- Foundation</t>
+  </si>
+  <si>
+    <t>One-Way ANOVA -- Multiple Comparisons</t>
+  </si>
+  <si>
+    <t>One-Way ANOVA -- Assumptions</t>
+  </si>
+  <si>
+    <t>One-Way ANOVA -- Transformations</t>
+  </si>
+  <si>
+    <t>One-Way ANOVA -- Summary</t>
+  </si>
+  <si>
+    <t>One-Way ANOVA -- Case Study</t>
+  </si>
+  <si>
+    <t>Two-Way ANOVA -- Foundation II</t>
+  </si>
+  <si>
+    <t>Two-Way ANOVA -- Foundation I</t>
+  </si>
+  <si>
+    <t>Two-Way ANOVA -- Analysis</t>
+  </si>
+  <si>
+    <t>Two-Way ANOVA -- Summary</t>
+  </si>
+  <si>
+    <t>Two-Way ANOVA -- Case Study</t>
+  </si>
+  <si>
+    <t>SLR -- Case Study</t>
+  </si>
+  <si>
+    <t>IVR -- Case Study</t>
+  </si>
+  <si>
+    <t>Logistic Reg -- Foundations</t>
+  </si>
+  <si>
+    <t>Logistic Reg -- Model</t>
+  </si>
+  <si>
+    <t>Logistic Reg -- Analysis</t>
+  </si>
+  <si>
+    <t>Logistic Reg -- Case Study</t>
   </si>
 </sst>
 </file>
@@ -628,12 +676,12 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -785,7 +833,7 @@
         <v>44589</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -803,7 +851,7 @@
         <v>44592</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -821,7 +869,7 @@
         <v>44594</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -839,7 +887,7 @@
         <v>44596</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -857,7 +905,7 @@
         <v>44599</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -875,10 +923,7 @@
         <v>44601</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -893,10 +938,10 @@
         <v>44603</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -911,10 +956,10 @@
         <v>44606</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -929,10 +974,10 @@
         <v>44608</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -947,10 +992,10 @@
         <v>44610</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -965,10 +1010,7 @@
         <v>44613</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -983,10 +1025,10 @@
         <v>44615</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1001,10 +1043,10 @@
         <v>44617</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1019,10 +1061,10 @@
         <v>44620</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1037,10 +1079,10 @@
         <v>44622</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1055,7 +1097,10 @@
         <v>44624</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1106,7 +1151,10 @@
         <v>44634</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1121,10 +1169,7 @@
         <v>44636</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1139,10 +1184,10 @@
         <v>44638</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1157,10 +1202,10 @@
         <v>44641</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1175,10 +1220,10 @@
         <v>44643</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1193,10 +1238,10 @@
         <v>44645</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1211,10 +1256,10 @@
         <v>44648</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1229,10 +1274,7 @@
         <v>44650</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1247,10 +1289,10 @@
         <v>44652</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1265,7 +1307,10 @@
         <v>44655</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>86</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1280,7 +1325,10 @@
         <v>44657</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>87</v>
+      </c>
+      <c r="E38" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1295,7 +1343,7 @@
         <v>44659</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
